--- a/segments.xlsx
+++ b/segments.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="460" windowWidth="17100" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="10120" yWindow="460" windowWidth="17100" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$61</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="164">
   <si>
     <t>:ii</t>
   </si>
@@ -489,13 +492,40 @@
   </si>
   <si>
     <t>ṇ</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>AC interpreted dot as dental, so looked up dental n (not advanced n)</t>
+  </si>
+  <si>
+    <t>AC interpreted dot as dental, so looked up dental t (not advanced t)</t>
+  </si>
+  <si>
+    <t>AC used βʲ so this may be an overestimate</t>
+  </si>
+  <si>
+    <t>AC used pt</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>not looked up since not in stimuli</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -513,6 +543,14 @@
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -532,16 +570,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -817,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="168" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -828,7 +869,7 @@
     <col min="2" max="2" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -844,8 +885,17 @@
       <c r="E1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -861,8 +911,17 @@
       <c r="E2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -878,50 +937,71 @@
       <c r="E3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>223</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>46</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>86</v>
@@ -929,8 +1009,14 @@
       <c r="E6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -946,8 +1032,17 @@
       <c r="E7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -963,8 +1058,17 @@
       <c r="E8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -980,8 +1084,17 @@
       <c r="E9" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -997,25 +1110,40 @@
       <c r="E10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>225</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1031,8 +1159,17 @@
       <c r="E12" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1048,8 +1185,17 @@
       <c r="E13" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1065,8 +1211,17 @@
       <c r="E14" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1082,8 +1237,17 @@
       <c r="E15" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1099,25 +1263,40 @@
       <c r="E16" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
+        <v>94</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1133,8 +1312,17 @@
       <c r="E18" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>162</v>
+      </c>
+      <c r="H18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1150,33 +1338,48 @@
       <c r="E19" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>641</v>
+      </c>
+      <c r="G20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D21" t="s">
         <v>135</v>
@@ -1184,33 +1387,45 @@
       <c r="E21" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>675</v>
+      </c>
+      <c r="G21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" t="s">
-        <v>138</v>
+        <v>93</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
         <v>135</v>
@@ -1218,33 +1433,45 @@
       <c r="E23" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>1129</v>
+      </c>
+      <c r="G23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>436</v>
+      </c>
+      <c r="G24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D25" t="s">
         <v>135</v>
@@ -1252,8 +1479,14 @@
       <c r="E25" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>2779</v>
+      </c>
+      <c r="G25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -1269,25 +1502,40 @@
       <c r="E26" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>2716</v>
+      </c>
+      <c r="G27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1303,8 +1551,17 @@
       <c r="E28" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1320,25 +1577,41 @@
       <c r="E29" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" t="s">
+        <v>162</v>
+      </c>
+      <c r="H29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>373</v>
+      </c>
+      <c r="G30">
+        <v>12</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1354,8 +1627,17 @@
       <c r="E31" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>162</v>
+      </c>
+      <c r="G31" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -1371,8 +1653,17 @@
       <c r="E32" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -1388,8 +1679,17 @@
       <c r="E33" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" t="s">
+        <v>162</v>
+      </c>
+      <c r="H33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -1405,8 +1705,17 @@
       <c r="E34" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>162</v>
+      </c>
+      <c r="G34" t="s">
+        <v>162</v>
+      </c>
+      <c r="H34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -1422,16 +1731,25 @@
       <c r="E35" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" t="s">
+        <v>162</v>
+      </c>
+      <c r="H35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
         <v>89</v>
@@ -1439,16 +1757,25 @@
       <c r="E36" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>116</v>
+        <v>149</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D37" t="s">
         <v>89</v>
@@ -1456,16 +1783,22 @@
       <c r="E37" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>2914</v>
+      </c>
+      <c r="G37">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>65</v>
+        <v>115</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
         <v>89</v>
@@ -1473,8 +1806,17 @@
       <c r="E38" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>532</v>
+      </c>
+      <c r="G38">
+        <v>18</v>
+      </c>
+      <c r="H38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -1490,8 +1832,17 @@
       <c r="E39" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" t="s">
+        <v>162</v>
+      </c>
+      <c r="H39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -1507,8 +1858,17 @@
       <c r="E40" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>162</v>
+      </c>
+      <c r="G40" t="s">
+        <v>162</v>
+      </c>
+      <c r="H40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -1524,8 +1884,17 @@
       <c r="E41" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>162</v>
+      </c>
+      <c r="G41" t="s">
+        <v>162</v>
+      </c>
+      <c r="H41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -1541,8 +1910,17 @@
       <c r="E42" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>162</v>
+      </c>
+      <c r="G42" t="s">
+        <v>162</v>
+      </c>
+      <c r="H42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -1558,8 +1936,17 @@
       <c r="E43" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>162</v>
+      </c>
+      <c r="G43" t="s">
+        <v>162</v>
+      </c>
+      <c r="H43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -1575,8 +1962,17 @@
       <c r="E44" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" t="s">
+        <v>162</v>
+      </c>
+      <c r="H44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -1592,8 +1988,17 @@
       <c r="E45" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>162</v>
+      </c>
+      <c r="G45" t="s">
+        <v>162</v>
+      </c>
+      <c r="H45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -1609,8 +2014,17 @@
       <c r="E46" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>162</v>
+      </c>
+      <c r="G46" t="s">
+        <v>162</v>
+      </c>
+      <c r="H46" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -1626,8 +2040,17 @@
       <c r="E47" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" t="s">
+        <v>162</v>
+      </c>
+      <c r="H47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -1643,8 +2066,17 @@
       <c r="E48" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>162</v>
+      </c>
+      <c r="G48" t="s">
+        <v>162</v>
+      </c>
+      <c r="H48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -1660,8 +2092,17 @@
       <c r="E49" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>162</v>
+      </c>
+      <c r="G49" t="s">
+        <v>162</v>
+      </c>
+      <c r="H49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -1677,8 +2118,17 @@
       <c r="E50" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>162</v>
+      </c>
+      <c r="G50" t="s">
+        <v>162</v>
+      </c>
+      <c r="H50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -1694,8 +2144,17 @@
       <c r="E51" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>162</v>
+      </c>
+      <c r="G51" t="s">
+        <v>162</v>
+      </c>
+      <c r="H51" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -1711,8 +2170,17 @@
       <c r="E52" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>162</v>
+      </c>
+      <c r="G52" t="s">
+        <v>162</v>
+      </c>
+      <c r="H52" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -1728,33 +2196,48 @@
       <c r="E53" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>162</v>
+      </c>
+      <c r="G53" t="s">
+        <v>162</v>
+      </c>
+      <c r="H53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="D54" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="E54" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <v>1070</v>
+      </c>
+      <c r="G54">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>131</v>
+        <v>150</v>
+      </c>
+      <c r="B55" t="s">
+        <v>150</v>
       </c>
       <c r="C55" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="D55" t="s">
         <v>89</v>
@@ -1762,16 +2245,22 @@
       <c r="E55" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <v>2594</v>
+      </c>
+      <c r="G55">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C56" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D56" t="s">
         <v>89</v>
@@ -1779,16 +2268,22 @@
       <c r="E56" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>2064</v>
+      </c>
+      <c r="G56">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>149</v>
-      </c>
-      <c r="B57" t="s">
-        <v>149</v>
+        <v>147</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D57" t="s">
         <v>89</v>
@@ -1796,16 +2291,25 @@
       <c r="E57" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <v>707</v>
+      </c>
+      <c r="G57">
+        <v>23</v>
+      </c>
+      <c r="H57" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>150</v>
-      </c>
-      <c r="B58" t="s">
-        <v>150</v>
+        <v>63</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
         <v>89</v>
@@ -1813,16 +2317,25 @@
       <c r="E58" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
         <v>89</v>
@@ -1830,42 +2343,68 @@
       <c r="E59" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D60" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="E60" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <v>2646</v>
+      </c>
+      <c r="G60">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>154</v>
+        <v>52</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E61" t="s">
         <v>134</v>
       </c>
+      <c r="F61">
+        <v>1003</v>
+      </c>
+      <c r="G61">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G61">
+    <sortState ref="A4:G61">
+      <sortCondition ref="B1:B61"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/segments.xlsx
+++ b/segments.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10120" yWindow="460" windowWidth="17100" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="2540" yWindow="460" windowWidth="20640" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="segments.txt" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">segments.txt!$A$1:$G$61</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="166">
   <si>
     <t>:ii</t>
   </si>
@@ -519,13 +519,19 @@
   </si>
   <si>
     <t>not looked up since not in stimuli</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>ə:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -552,6 +558,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -574,12 +585,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -858,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="168" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="168" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1226,7 +1238,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1247,7 +1259,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1261,16 +1273,13 @@
         <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" t="s">
-        <v>162</v>
-      </c>
-      <c r="G16" t="s">
-        <v>162</v>
-      </c>
-      <c r="H16" t="s">
-        <v>163</v>
+        <v>134</v>
+      </c>
+      <c r="F16" s="5">
+        <v>104</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2390,13 +2399,36 @@
         <v>87</v>
       </c>
       <c r="E61" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="F61">
         <v>1003</v>
       </c>
       <c r="G61">
         <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" t="s">
+        <v>89</v>
+      </c>
+      <c r="F62">
+        <v>2483</v>
+      </c>
+      <c r="G62">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/segments.xlsx
+++ b/segments.xlsx
@@ -5,17 +5,17 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acristia/Documents/gitrepos/nwryd19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrinacristia/gitrepos/nwryd19/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="460" windowWidth="20640" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="15740" yWindow="3380" windowWidth="20640" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="segments.txt" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">segments.txt!$A$1:$G$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">segments.txt!$A$1:$I$62</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="166">
   <si>
     <t>:ii</t>
   </si>
@@ -870,18 +870,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H62"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="168" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="168" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="10.83203125" style="2" customWidth="1"/>
+    <col min="3" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -907,7 +909,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -932,8 +934,11 @@
       <c r="H2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -958,62 +963,65 @@
       <c r="H3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
         <v>134</v>
       </c>
       <c r="F4">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="G4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
         <v>134</v>
       </c>
       <c r="F5">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
+        <v>94</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>86</v>
@@ -1022,13 +1030,13 @@
         <v>134</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1053,8 +1061,11 @@
       <c r="H7" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1079,8 +1090,11 @@
       <c r="H8" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1105,8 +1119,11 @@
       <c r="H9" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1131,31 +1148,34 @@
       <c r="H10" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" t="s">
-        <v>140</v>
+        <v>93</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
         <v>134</v>
       </c>
       <c r="F11">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1180,8 +1200,11 @@
       <c r="H12" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1206,8 +1229,11 @@
       <c r="H13" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1232,8 +1258,11 @@
       <c r="H14" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1258,54 +1287,57 @@
       <c r="H15" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
         <v>134</v>
       </c>
-      <c r="F16" s="5">
-        <v>104</v>
+      <c r="F16">
+        <v>223</v>
       </c>
       <c r="G16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
+        <v>145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="E17" t="s">
         <v>134</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1330,8 +1362,11 @@
       <c r="H18" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1356,16 +1391,19 @@
       <c r="H19" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
+        <v>101</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
       </c>
       <c r="D20" t="s">
         <v>87</v>
@@ -1373,60 +1411,66 @@
       <c r="E20" t="s">
         <v>134</v>
       </c>
-      <c r="F20">
-        <v>641</v>
+      <c r="F20" s="5">
+        <v>104</v>
       </c>
       <c r="G20">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
         <v>134</v>
       </c>
       <c r="F21">
-        <v>675</v>
+        <v>707</v>
       </c>
       <c r="G21">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="H21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
+        <v>116</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
         <v>134</v>
       </c>
       <c r="F22">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -1449,53 +1493,53 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="E24" t="s">
         <v>134</v>
       </c>
       <c r="F24">
-        <v>436</v>
+        <v>675</v>
       </c>
       <c r="G24">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
         <v>134</v>
       </c>
       <c r="F25">
-        <v>2779</v>
+        <v>641</v>
       </c>
       <c r="G25">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -1520,16 +1564,19 @@
       <c r="H26" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
         <v>89</v>
@@ -1538,13 +1585,13 @@
         <v>134</v>
       </c>
       <c r="F27">
-        <v>2716</v>
+        <v>436</v>
       </c>
       <c r="G27">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1569,8 +1616,11 @@
       <c r="H28" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1595,32 +1645,34 @@
       <c r="H29" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="E30" t="s">
         <v>134</v>
       </c>
       <c r="F30">
-        <v>373</v>
+        <v>2779</v>
       </c>
       <c r="G30">
-        <v>12</v>
-      </c>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1645,8 +1697,11 @@
       <c r="H31" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -1671,8 +1726,11 @@
       <c r="H32" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -1697,8 +1755,11 @@
       <c r="H33" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -1723,8 +1784,11 @@
       <c r="H34" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -1749,16 +1813,19 @@
       <c r="H35" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
         <v>89</v>
@@ -1767,24 +1834,22 @@
         <v>134</v>
       </c>
       <c r="F36">
-        <v>10</v>
+        <v>373</v>
       </c>
       <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B37" t="s">
-        <v>149</v>
+        <v>82</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
         <v>89</v>
@@ -1793,21 +1858,24 @@
         <v>134</v>
       </c>
       <c r="F37">
-        <v>2914</v>
+        <v>10</v>
       </c>
       <c r="G37">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="B38" t="s">
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
         <v>89</v>
@@ -1816,16 +1884,13 @@
         <v>134</v>
       </c>
       <c r="F38">
-        <v>532</v>
+        <v>2914</v>
       </c>
       <c r="G38">
-        <v>18</v>
-      </c>
-      <c r="H38" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -1850,8 +1915,11 @@
       <c r="H39" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -1876,8 +1944,11 @@
       <c r="H40" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -1902,8 +1973,11 @@
       <c r="H41" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -1928,8 +2002,11 @@
       <c r="H42" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -1954,8 +2031,11 @@
       <c r="H43" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -1980,8 +2060,11 @@
       <c r="H44" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -2006,8 +2089,11 @@
       <c r="H45" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -2032,8 +2118,11 @@
       <c r="H46" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -2058,8 +2147,11 @@
       <c r="H47" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -2084,8 +2176,11 @@
       <c r="H48" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -2110,8 +2205,11 @@
       <c r="H49" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -2136,8 +2234,11 @@
       <c r="H50" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -2162,8 +2263,11 @@
       <c r="H51" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -2188,8 +2292,11 @@
       <c r="H52" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -2214,62 +2321,68 @@
       <c r="H53" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>142</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>106</v>
+        <v>115</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="C54" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="D54" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="E54" t="s">
         <v>134</v>
       </c>
       <c r="F54">
-        <v>1070</v>
+        <v>532</v>
       </c>
       <c r="G54">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="H54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" t="s">
-        <v>150</v>
+        <v>142</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="E55" t="s">
         <v>134</v>
       </c>
       <c r="F55">
-        <v>2594</v>
+        <v>1070</v>
       </c>
       <c r="G55">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>153</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="B56" t="s">
+        <v>150</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D56" t="s">
         <v>89</v>
@@ -2278,21 +2391,21 @@
         <v>134</v>
       </c>
       <c r="F56">
-        <v>2064</v>
+        <v>2594</v>
       </c>
       <c r="G56">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D57" t="s">
         <v>89</v>
@@ -2301,16 +2414,13 @@
         <v>134</v>
       </c>
       <c r="F57">
-        <v>707</v>
+        <v>2064</v>
       </c>
       <c r="G57">
-        <v>23</v>
-      </c>
-      <c r="H57" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -2336,105 +2446,110 @@
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="E59" t="s">
         <v>134</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>2646</v>
       </c>
       <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="E60" t="s">
+        <v>89</v>
+      </c>
+      <c r="F60">
+        <v>1003</v>
+      </c>
+      <c r="G60">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" t="s">
+        <v>89</v>
+      </c>
+      <c r="F61">
+        <v>2483</v>
+      </c>
+      <c r="G61">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" t="s">
         <v>134</v>
       </c>
-      <c r="F60">
-        <v>2646</v>
-      </c>
-      <c r="G60">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C61" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" t="s">
-        <v>89</v>
-      </c>
-      <c r="F61">
-        <v>1003</v>
-      </c>
-      <c r="G61">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B62" t="s">
-        <v>89</v>
-      </c>
-      <c r="C62" t="s">
-        <v>89</v>
-      </c>
-      <c r="D62" t="s">
-        <v>89</v>
-      </c>
-      <c r="E62" t="s">
-        <v>89</v>
-      </c>
       <c r="F62">
-        <v>2483</v>
+        <v>2716</v>
       </c>
       <c r="G62">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G61">
-    <sortState ref="A4:G61">
-      <sortCondition ref="B1:B61"/>
+  <autoFilter ref="A1:I62">
+    <filterColumn colId="7">
+      <filters blank="1">
+        <filter val="AC interpreted dot as dental, so looked up dental n (not advanced n)"/>
+        <filter val="AC interpreted dot as dental, so looked up dental t (not advanced t)"/>
+        <filter val="AC used pt"/>
+        <filter val="AC used βʲ so this may be an overestimate"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A4:I62">
+      <sortCondition ref="A1:A62"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/segments.xlsx
+++ b/segments.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15740" yWindow="3380" windowWidth="20640" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="5200" yWindow="1080" windowWidth="20640" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="segments.txt" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">segments.txt!$A$1:$I$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">segments.txt!$A$1:$I$63</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="168">
   <si>
     <t>:ii</t>
   </si>
@@ -215,9 +215,6 @@
     <t>:o</t>
   </si>
   <si>
-    <t>'n</t>
-  </si>
-  <si>
     <t>tp</t>
   </si>
   <si>
@@ -332,9 +329,6 @@
     <t>æː</t>
   </si>
   <si>
-    <t>ɑː</t>
-  </si>
-  <si>
     <t>ə</t>
   </si>
   <si>
@@ -359,9 +353,6 @@
     <t>ɛ͂</t>
   </si>
   <si>
-    <t>æ͂</t>
-  </si>
-  <si>
     <t>ə͂</t>
   </si>
   <si>
@@ -525,25 +516,34 @@
   </si>
   <si>
     <t>ə:</t>
+  </si>
+  <si>
+    <t>ɑ:</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>̃æ</t>
+  </si>
+  <si>
+    <t>î</t>
+  </si>
+  <si>
+    <t>ɯ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="13"/>
@@ -583,15 +583,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -870,118 +869,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="168" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="168" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
     <col min="3" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="C1" t="s">
         <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>90</v>
+      <c r="B2" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>91</v>
+      <c r="B3" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>110</v>
+      <c r="B4" t="s">
+        <v>165</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F4">
         <v>46</v>
@@ -994,17 +992,17 @@
       <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>92</v>
+      <c r="B5" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F5">
         <v>7</v>
@@ -1017,17 +1015,17 @@
       <c r="A6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>94</v>
+      <c r="B6" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F6">
         <v>16</v>
@@ -1036,137 +1034,137 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>95</v>
+      <c r="B7" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>96</v>
+      <c r="B8" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>97</v>
+      <c r="B9" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>98</v>
+      <c r="B10" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>93</v>
+      <c r="B11" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1175,1379 +1173,1411 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>100</v>
+      <c r="B13" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14">
+        <v>193</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" t="s">
-        <v>162</v>
-      </c>
-      <c r="G14" t="s">
-        <v>162</v>
-      </c>
-      <c r="H14" t="s">
-        <v>163</v>
-      </c>
-      <c r="I14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" t="s">
-        <v>138</v>
+        <v>50</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16">
-        <v>223</v>
-      </c>
-      <c r="G16">
-        <v>7</v>
+        <v>130</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F17">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G17">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18">
+        <v>225</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" t="s">
+        <v>160</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" t="s">
+        <v>160</v>
+      </c>
+      <c r="I20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
         <v>163</v>
       </c>
-      <c r="I18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" t="s">
-        <v>162</v>
-      </c>
-      <c r="G19" t="s">
-        <v>162</v>
-      </c>
-      <c r="H19" t="s">
-        <v>163</v>
-      </c>
-      <c r="I19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20">
+      <c r="C21">
         <v>5</v>
       </c>
-      <c r="D20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="4">
         <v>104</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22">
         <v>707</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>23</v>
       </c>
-      <c r="H21" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>143</v>
+        <v>63</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>134</v>
       </c>
-      <c r="F23">
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24">
         <v>1129</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E24" t="s">
-        <v>134</v>
-      </c>
-      <c r="F24">
-        <v>675</v>
-      </c>
-      <c r="G24">
-        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25">
+        <v>675</v>
+      </c>
+      <c r="G25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" t="s">
         <v>9</v>
       </c>
-      <c r="D25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25">
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26">
         <v>641</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" t="s">
-        <v>162</v>
-      </c>
-      <c r="H26" t="s">
-        <v>163</v>
-      </c>
-      <c r="I26" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>130</v>
+        <v>143</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" t="s">
+        <v>160</v>
+      </c>
+      <c r="I27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" t="s">
         <v>36</v>
       </c>
-      <c r="D27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27">
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28">
         <v>436</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28">
+      <c r="B29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29">
         <v>1</v>
       </c>
-      <c r="D28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28" t="s">
-        <v>162</v>
-      </c>
-      <c r="G28" t="s">
-        <v>162</v>
-      </c>
-      <c r="H28" t="s">
-        <v>163</v>
-      </c>
-      <c r="I28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F29" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G29" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H29" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I29" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" t="s">
-        <v>136</v>
+        <v>56</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>134</v>
-      </c>
-      <c r="F30">
+        <v>130</v>
+      </c>
+      <c r="F30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" t="s">
+        <v>159</v>
+      </c>
+      <c r="H30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31">
         <v>2779</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32">
+        <v>91</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="I32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" t="s">
+        <v>159</v>
+      </c>
+      <c r="H33" t="s">
+        <v>160</v>
+      </c>
+      <c r="I33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" t="s">
+        <v>160</v>
+      </c>
+      <c r="I34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C31">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" t="s">
-        <v>133</v>
-      </c>
-      <c r="F31" t="s">
-        <v>162</v>
-      </c>
-      <c r="G31" t="s">
-        <v>162</v>
-      </c>
-      <c r="H31" t="s">
-        <v>163</v>
-      </c>
-      <c r="I31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32">
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" t="s">
-        <v>133</v>
-      </c>
-      <c r="F32" t="s">
-        <v>162</v>
-      </c>
-      <c r="G32" t="s">
-        <v>162</v>
-      </c>
-      <c r="H32" t="s">
-        <v>163</v>
-      </c>
-      <c r="I32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" t="s">
-        <v>133</v>
-      </c>
-      <c r="F33" t="s">
-        <v>162</v>
-      </c>
-      <c r="G33" t="s">
-        <v>162</v>
-      </c>
-      <c r="H33" t="s">
-        <v>163</v>
-      </c>
-      <c r="I33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34">
+      <c r="C35">
         <v>9</v>
       </c>
-      <c r="D34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" t="s">
-        <v>133</v>
-      </c>
-      <c r="F34" t="s">
-        <v>162</v>
-      </c>
-      <c r="G34" t="s">
-        <v>162</v>
-      </c>
-      <c r="H34" t="s">
-        <v>163</v>
-      </c>
-      <c r="I34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" t="s">
-        <v>17</v>
-      </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>65</v>
+        <v>17</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F36">
-        <v>373</v>
+        <v>2349</v>
       </c>
       <c r="G36">
-        <v>12</v>
-      </c>
-      <c r="H36" s="4"/>
+        <v>78</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>131</v>
+        <v>64</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37">
+        <v>373</v>
+      </c>
+      <c r="G37">
+        <v>12</v>
+      </c>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" t="s">
         <v>37</v>
       </c>
-      <c r="D37" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37">
+      <c r="D38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38">
         <v>10</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <v>0</v>
       </c>
-      <c r="H37" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>149</v>
-      </c>
-      <c r="B38" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" t="s">
-        <v>149</v>
-      </c>
-      <c r="D38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38">
+      <c r="H38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39">
         <v>2914</v>
       </c>
-      <c r="G38">
+      <c r="G39">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" t="s">
+        <v>159</v>
+      </c>
+      <c r="G40" t="s">
+        <v>159</v>
+      </c>
+      <c r="H40" t="s">
+        <v>160</v>
+      </c>
+      <c r="I40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" t="s">
+        <v>159</v>
+      </c>
+      <c r="H41" t="s">
+        <v>160</v>
+      </c>
+      <c r="I41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42" t="s">
+        <v>159</v>
+      </c>
+      <c r="H42" t="s">
+        <v>160</v>
+      </c>
+      <c r="I42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" t="s">
+        <v>159</v>
+      </c>
+      <c r="G43" t="s">
+        <v>159</v>
+      </c>
+      <c r="H43" t="s">
+        <v>160</v>
+      </c>
+      <c r="I43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" t="s">
-        <v>133</v>
-      </c>
-      <c r="F39" t="s">
-        <v>162</v>
-      </c>
-      <c r="G39" t="s">
-        <v>162</v>
-      </c>
-      <c r="H39" t="s">
-        <v>163</v>
-      </c>
-      <c r="I39" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="3" t="s">
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" t="s">
+        <v>159</v>
+      </c>
+      <c r="G44" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" t="s">
+        <v>160</v>
+      </c>
+      <c r="I44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" t="s">
+        <v>159</v>
+      </c>
+      <c r="G45" t="s">
+        <v>159</v>
+      </c>
+      <c r="H45" t="s">
+        <v>160</v>
+      </c>
+      <c r="I45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" t="s">
-        <v>133</v>
-      </c>
-      <c r="F40" t="s">
-        <v>162</v>
-      </c>
-      <c r="G40" t="s">
-        <v>162</v>
-      </c>
-      <c r="H40" t="s">
-        <v>163</v>
-      </c>
-      <c r="I40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46" t="s">
+        <v>159</v>
+      </c>
+      <c r="H46" t="s">
+        <v>160</v>
+      </c>
+      <c r="I46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" t="s">
-        <v>133</v>
-      </c>
-      <c r="F41" t="s">
-        <v>162</v>
-      </c>
-      <c r="G41" t="s">
-        <v>162</v>
-      </c>
-      <c r="H41" t="s">
-        <v>163</v>
-      </c>
-      <c r="I41" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" t="s">
-        <v>133</v>
-      </c>
-      <c r="F42" t="s">
-        <v>162</v>
-      </c>
-      <c r="G42" t="s">
-        <v>162</v>
-      </c>
-      <c r="H42" t="s">
-        <v>163</v>
-      </c>
-      <c r="I42" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" t="s">
+        <v>159</v>
+      </c>
+      <c r="G47" t="s">
+        <v>159</v>
+      </c>
+      <c r="H47" t="s">
+        <v>160</v>
+      </c>
+      <c r="I47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" t="s">
-        <v>133</v>
-      </c>
-      <c r="F43" t="s">
-        <v>162</v>
-      </c>
-      <c r="G43" t="s">
-        <v>162</v>
-      </c>
-      <c r="H43" t="s">
-        <v>163</v>
-      </c>
-      <c r="I43" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" t="s">
-        <v>89</v>
-      </c>
-      <c r="E44" t="s">
-        <v>133</v>
-      </c>
-      <c r="F44" t="s">
-        <v>162</v>
-      </c>
-      <c r="G44" t="s">
-        <v>162</v>
-      </c>
-      <c r="H44" t="s">
-        <v>163</v>
-      </c>
-      <c r="I44" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" t="s">
+        <v>159</v>
+      </c>
+      <c r="G48" t="s">
+        <v>159</v>
+      </c>
+      <c r="H48" t="s">
+        <v>160</v>
+      </c>
+      <c r="I48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" t="s">
-        <v>89</v>
-      </c>
-      <c r="E45" t="s">
-        <v>133</v>
-      </c>
-      <c r="F45" t="s">
-        <v>162</v>
-      </c>
-      <c r="G45" t="s">
-        <v>162</v>
-      </c>
-      <c r="H45" t="s">
-        <v>163</v>
-      </c>
-      <c r="I45" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="C49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" t="s">
+        <v>159</v>
+      </c>
+      <c r="G49" t="s">
+        <v>159</v>
+      </c>
+      <c r="H49" t="s">
+        <v>160</v>
+      </c>
+      <c r="I49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" t="s">
-        <v>133</v>
-      </c>
-      <c r="F46" t="s">
-        <v>162</v>
-      </c>
-      <c r="G46" t="s">
-        <v>162</v>
-      </c>
-      <c r="H46" t="s">
-        <v>163</v>
-      </c>
-      <c r="I46" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="3" t="s">
+      <c r="C50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50" t="s">
+        <v>159</v>
+      </c>
+      <c r="G50" t="s">
+        <v>159</v>
+      </c>
+      <c r="H50" t="s">
+        <v>160</v>
+      </c>
+      <c r="I50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C47" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" t="s">
-        <v>133</v>
-      </c>
-      <c r="F47" t="s">
-        <v>162</v>
-      </c>
-      <c r="G47" t="s">
-        <v>162</v>
-      </c>
-      <c r="H47" t="s">
-        <v>163</v>
-      </c>
-      <c r="I47" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" t="s">
+        <v>159</v>
+      </c>
+      <c r="G51" t="s">
+        <v>159</v>
+      </c>
+      <c r="H51" t="s">
+        <v>160</v>
+      </c>
+      <c r="I51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" t="s">
-        <v>89</v>
-      </c>
-      <c r="E48" t="s">
-        <v>133</v>
-      </c>
-      <c r="F48" t="s">
-        <v>162</v>
-      </c>
-      <c r="G48" t="s">
-        <v>162</v>
-      </c>
-      <c r="H48" t="s">
-        <v>163</v>
-      </c>
-      <c r="I48" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" t="s">
+        <v>159</v>
+      </c>
+      <c r="G52" t="s">
+        <v>159</v>
+      </c>
+      <c r="H52" t="s">
+        <v>160</v>
+      </c>
+      <c r="I52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" t="s">
-        <v>133</v>
-      </c>
-      <c r="F49" t="s">
-        <v>162</v>
-      </c>
-      <c r="G49" t="s">
-        <v>162</v>
-      </c>
-      <c r="H49" t="s">
-        <v>163</v>
-      </c>
-      <c r="I49" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" t="s">
-        <v>133</v>
-      </c>
-      <c r="F50" t="s">
-        <v>162</v>
-      </c>
-      <c r="G50" t="s">
-        <v>162</v>
-      </c>
-      <c r="H50" t="s">
-        <v>163</v>
-      </c>
-      <c r="I50" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" t="s">
-        <v>89</v>
-      </c>
-      <c r="E51" t="s">
-        <v>133</v>
-      </c>
-      <c r="F51" t="s">
-        <v>162</v>
-      </c>
-      <c r="G51" t="s">
-        <v>162</v>
-      </c>
-      <c r="H51" t="s">
-        <v>163</v>
-      </c>
-      <c r="I51" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>34</v>
       </c>
-      <c r="D52" t="s">
-        <v>89</v>
-      </c>
-      <c r="E52" t="s">
-        <v>133</v>
-      </c>
-      <c r="F52" t="s">
-        <v>162</v>
-      </c>
-      <c r="G52" t="s">
-        <v>162</v>
-      </c>
-      <c r="H52" t="s">
-        <v>163</v>
-      </c>
-      <c r="I52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C53" t="s">
-        <v>35</v>
-      </c>
       <c r="D53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E53" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F53" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G53" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H53" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I53" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>115</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>154</v>
+        <v>79</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="D54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E54" t="s">
-        <v>134</v>
-      </c>
-      <c r="F54">
+        <v>130</v>
+      </c>
+      <c r="F54" t="s">
+        <v>159</v>
+      </c>
+      <c r="G54" t="s">
+        <v>159</v>
+      </c>
+      <c r="H54" t="s">
+        <v>160</v>
+      </c>
+      <c r="I54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55">
         <v>532</v>
       </c>
-      <c r="G54">
+      <c r="G55">
         <v>18</v>
       </c>
-      <c r="H54" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>142</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" t="s">
-        <v>142</v>
-      </c>
-      <c r="D55" t="s">
-        <v>135</v>
-      </c>
-      <c r="E55" t="s">
-        <v>134</v>
-      </c>
-      <c r="F55">
+      <c r="H55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56">
         <v>1070</v>
       </c>
-      <c r="G55">
+      <c r="G56">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>147</v>
+      </c>
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57">
+        <v>2594</v>
+      </c>
+      <c r="G57">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>150</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
         <v>150</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C58" t="s">
         <v>150</v>
       </c>
-      <c r="D56" t="s">
-        <v>89</v>
-      </c>
-      <c r="E56" t="s">
-        <v>134</v>
-      </c>
-      <c r="F56">
-        <v>2594</v>
-      </c>
-      <c r="G56">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>153</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C57" t="s">
-        <v>153</v>
-      </c>
-      <c r="D57" t="s">
-        <v>89</v>
-      </c>
-      <c r="E57" t="s">
-        <v>134</v>
-      </c>
-      <c r="F57">
+      <c r="D58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" t="s">
+        <v>131</v>
+      </c>
+      <c r="F58">
         <v>2064</v>
       </c>
-      <c r="G57">
+      <c r="G58">
         <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" t="s">
-        <v>89</v>
-      </c>
-      <c r="E58" t="s">
-        <v>134</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>141</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>141</v>
+        <v>62</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="E59" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F59">
-        <v>2646</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>88</v>
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60">
+        <v>2646</v>
+      </c>
+      <c r="G60">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B61" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" t="s">
         <v>13</v>
       </c>
-      <c r="D60" t="s">
-        <v>87</v>
-      </c>
-      <c r="E60" t="s">
-        <v>89</v>
-      </c>
-      <c r="F60">
+      <c r="D61" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" t="s">
+        <v>131</v>
+      </c>
+      <c r="F61">
         <v>1003</v>
       </c>
-      <c r="G60">
+      <c r="G61">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62">
+        <v>2483</v>
+      </c>
+      <c r="G62">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" t="s">
+        <v>131</v>
+      </c>
+      <c r="F63">
+        <v>2716</v>
+      </c>
+      <c r="G63">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>164</v>
       </c>
-      <c r="B61" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" t="s">
-        <v>89</v>
-      </c>
-      <c r="D61" t="s">
-        <v>89</v>
-      </c>
-      <c r="E61" t="s">
-        <v>89</v>
-      </c>
-      <c r="F61">
-        <v>2483</v>
-      </c>
-      <c r="G61">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>151</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C62" t="s">
-        <v>151</v>
-      </c>
-      <c r="D62" t="s">
-        <v>89</v>
-      </c>
-      <c r="E62" t="s">
-        <v>134</v>
-      </c>
-      <c r="F62">
-        <v>2716</v>
-      </c>
-      <c r="G62">
+      <c r="B64" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" t="s">
+        <v>131</v>
+      </c>
+      <c r="F64">
+        <v>2730</v>
+      </c>
+      <c r="G64">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I62">
-    <filterColumn colId="7">
-      <filters blank="1">
-        <filter val="AC interpreted dot as dental, so looked up dental n (not advanced n)"/>
-        <filter val="AC interpreted dot as dental, so looked up dental t (not advanced t)"/>
-        <filter val="AC used pt"/>
-        <filter val="AC used βʲ so this may be an overestimate"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:I63">
     <sortState ref="A4:I62">
       <sortCondition ref="A1:A62"/>
     </sortState>

--- a/segments.xlsx
+++ b/segments.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrinacristia/gitrepos/nwryd19/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="1080" windowWidth="20640" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="200" yWindow="0" windowWidth="28600" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="segments.txt" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">segments.txt!$A$1:$I$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">segments.txt!$A$1:$I$64</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="171">
   <si>
     <t>:ii</t>
   </si>
@@ -494,18 +489,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>AC interpreted dot as dental, so looked up dental n (not advanced n)</t>
-  </si>
-  <si>
-    <t>AC interpreted dot as dental, so looked up dental t (not advanced t)</t>
-  </si>
-  <si>
-    <t>AC used βʲ so this may be an overestimate</t>
-  </si>
-  <si>
-    <t>AC used pt</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -531,13 +514,34 @@
   </si>
   <si>
     <t>ɯ</t>
+  </si>
+  <si>
+    <t>t = alveolar; tdot = postalveolar; MC used ʈ to represent the apical post-alveolar since the notation used by SCL is an older form used by Ladefoged that now appears to be not used anymore and instead these sounds would be conventionally grouped with the broader category of retroflex consonants</t>
+  </si>
+  <si>
+    <t>ń = alveolar; n/ndot = postalveolar</t>
+  </si>
+  <si>
+    <t>ń = alveolar; n/ndot = postalveolar; MC used ɳ to represent the apical post-alveolar since the notation used by SCL is an older form used by Ladefoged that now appears to be not used anymore and instead these sounds would be conventionally grouped with the broader category of retroflex consonants</t>
+  </si>
+  <si>
+    <t>freq was previously listed as 1003 but MC saw this was inconsistent with PHOIBLE report (pc was accurate)</t>
+  </si>
+  <si>
+    <t>NOT IN INVENTORY, so used frequency = 1; t = alveolar; tdot = postalveolar; MC used ʈ to represent the apical post-alveolar since the notation used by SCL is an older form used by Ladefoged that now appears to be not used anymore and instead these sounds would be conventionally grouped with the broader category of retroflex consonants</t>
+  </si>
+  <si>
+    <t>NOT IN INVENTORY, so used frequency = 1; AC previously used βʲ but this is a different sequence</t>
+  </si>
+  <si>
+    <t>NOT IN INVENTORY, so used frequency = 1; AC previously used pt, but this is a different sequence with only one PHOIBLE attestation from a very short sketch that claims it's only used medially, so I wouldn't use this for Yélî Dnye; t = alveolar; tdot = postalveolar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -563,13 +567,41 @@
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -581,18 +613,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="12">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -649,7 +704,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -684,7 +739,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -861,7 +916,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -871,17 +926,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="168" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
-    <col min="3" max="8" width="10.83203125" customWidth="1"/>
+    <col min="3" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -907,96 +963,90 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="16">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="5">
+        <v>46</v>
+      </c>
+      <c r="G2" s="5">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="16">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>85</v>
-      </c>
-      <c r="E2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
       </c>
       <c r="E4" t="s">
         <v>131</v>
       </c>
-      <c r="F4">
-        <v>46</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="F4" s="5">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
+        <v>93</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>85</v>
@@ -1004,74 +1054,77 @@
       <c r="E5" t="s">
         <v>131</v>
       </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="F5" s="5">
+        <v>16</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6">
-        <v>16</v>
-      </c>
-      <c r="G6">
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="5">
+        <v>91</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H7" t="s">
-        <v>160</v>
-      </c>
-      <c r="I7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
         <v>85</v>
@@ -1079,251 +1132,248 @@
       <c r="E8" t="s">
         <v>130</v>
       </c>
-      <c r="F8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" t="s">
-        <v>160</v>
+      <c r="F8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="I8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
+        <v>92</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" t="s">
-        <v>160</v>
-      </c>
-      <c r="I9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="F9" s="5">
+        <v>20</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
+        <v>106</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
         <v>130</v>
       </c>
-      <c r="F10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" t="s">
-        <v>160</v>
+      <c r="F10" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="I10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11">
-        <v>20</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
+        <v>111</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
         <v>130</v>
       </c>
-      <c r="F12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H12" t="s">
-        <v>160</v>
+      <c r="F12" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="I12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
         <v>130</v>
       </c>
-      <c r="F13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H13" t="s">
-        <v>160</v>
+      <c r="F13" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="I13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="C14">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
         <v>130</v>
       </c>
-      <c r="F14">
-        <v>193</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
+      <c r="F14" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="I14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
         <v>130</v>
       </c>
-      <c r="F15" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H15" t="s">
-        <v>160</v>
+      <c r="F15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
+        <v>141</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G16" t="s">
-        <v>159</v>
-      </c>
-      <c r="H16" t="s">
-        <v>160</v>
-      </c>
-      <c r="I16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="F16" s="5">
+        <v>223</v>
+      </c>
+      <c r="G16" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D17" t="s">
         <v>132</v>
@@ -1331,45 +1381,51 @@
       <c r="E17" t="s">
         <v>131</v>
       </c>
-      <c r="F17">
-        <v>223</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="5">
+        <v>225</v>
+      </c>
+      <c r="G17" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="16">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18">
-        <v>225</v>
-      </c>
-      <c r="G18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
         <v>86</v>
@@ -1377,155 +1433,161 @@
       <c r="E19" t="s">
         <v>130</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
         <v>159</v>
       </c>
-      <c r="G19" t="s">
-        <v>159</v>
-      </c>
-      <c r="H19" t="s">
-        <v>160</v>
-      </c>
-      <c r="I19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
+      <c r="C20">
+        <v>5</v>
       </c>
       <c r="D20" t="s">
         <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" t="s">
-        <v>159</v>
-      </c>
-      <c r="G20" t="s">
-        <v>159</v>
-      </c>
-      <c r="H20" t="s">
-        <v>160</v>
-      </c>
-      <c r="I20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7">
+        <v>104</v>
+      </c>
+      <c r="G20" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>144</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="4">
-        <v>104</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F21" s="6">
+        <v>481</v>
+      </c>
+      <c r="G21" s="6">
+        <v>16</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16">
       <c r="A22" t="s">
-        <v>144</v>
-      </c>
-      <c r="B22" t="s">
-        <v>145</v>
+        <v>78</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22">
-        <v>707</v>
-      </c>
-      <c r="G22">
-        <v>23</v>
-      </c>
-      <c r="H22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16">
       <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16">
+      <c r="A24" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>19</v>
       </c>
-      <c r="D23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" t="s">
-        <v>131</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" t="s">
-        <v>134</v>
-      </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
         <v>131</v>
       </c>
-      <c r="F24">
-        <v>1129</v>
-      </c>
-      <c r="G24">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16">
       <c r="A25" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>100</v>
+        <v>134</v>
+      </c>
+      <c r="B25" t="s">
+        <v>140</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
         <v>132</v>
@@ -1533,147 +1595,141 @@
       <c r="E25" t="s">
         <v>131</v>
       </c>
-      <c r="F25">
-        <v>675</v>
-      </c>
-      <c r="G25">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="F25" s="5">
+        <v>1129</v>
+      </c>
+      <c r="G25" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
         <v>131</v>
       </c>
-      <c r="F26">
-        <v>641</v>
-      </c>
-      <c r="G26">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="F26" s="5">
+        <v>675</v>
+      </c>
+      <c r="G26" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
         <v>130</v>
       </c>
-      <c r="F27" t="s">
-        <v>159</v>
-      </c>
-      <c r="G27" t="s">
-        <v>159</v>
-      </c>
-      <c r="H27" t="s">
-        <v>160</v>
+      <c r="F27" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="I27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
         <v>131</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="5">
+        <v>641</v>
+      </c>
+      <c r="G28" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="5">
         <v>436</v>
       </c>
-      <c r="G28">
+      <c r="G30" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" t="s">
-        <v>130</v>
-      </c>
-      <c r="F29" t="s">
-        <v>159</v>
-      </c>
-      <c r="G29" t="s">
-        <v>159</v>
-      </c>
-      <c r="H29" t="s">
-        <v>160</v>
-      </c>
-      <c r="I29" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" t="s">
-        <v>159</v>
-      </c>
-      <c r="G30" t="s">
-        <v>159</v>
-      </c>
-      <c r="H30" t="s">
-        <v>160</v>
-      </c>
-      <c r="I30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="16">
       <c r="A31" t="s">
         <v>133</v>
       </c>
@@ -1689,135 +1745,129 @@
       <c r="E31" t="s">
         <v>131</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="5">
         <v>2779</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="5">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="16">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="5">
+        <v>193</v>
+      </c>
+      <c r="G32" s="5">
         <v>6</v>
       </c>
-      <c r="D32" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32">
-        <v>91</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
       <c r="I32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
         <v>130</v>
       </c>
-      <c r="F33" t="s">
-        <v>159</v>
-      </c>
-      <c r="G33" t="s">
-        <v>159</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="F33" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16">
+      <c r="A35" t="s">
         <v>160</v>
       </c>
-      <c r="I33" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" t="s">
-        <v>130</v>
-      </c>
-      <c r="F34" t="s">
-        <v>159</v>
-      </c>
-      <c r="G34" t="s">
-        <v>159</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="B35" t="s">
         <v>160</v>
       </c>
-      <c r="I34" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35">
-        <v>9</v>
+      <c r="C35" t="s">
+        <v>160</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" t="s">
-        <v>159</v>
-      </c>
-      <c r="G35" t="s">
-        <v>159</v>
-      </c>
-      <c r="H35" t="s">
-        <v>160</v>
-      </c>
-      <c r="I35" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="F35" s="5">
+        <v>2730</v>
+      </c>
+      <c r="G35" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
@@ -1825,46 +1875,57 @@
       <c r="E36" t="s">
         <v>130</v>
       </c>
-      <c r="F36">
-        <v>2349</v>
-      </c>
-      <c r="G36">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="F36" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16">
       <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16">
+      <c r="A38" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>20</v>
-      </c>
-      <c r="D37" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" t="s">
-        <v>131</v>
-      </c>
-      <c r="F37">
-        <v>373</v>
-      </c>
-      <c r="G37">
-        <v>12</v>
-      </c>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" t="s">
-        <v>37</v>
       </c>
       <c r="D38" t="s">
         <v>88</v>
@@ -1872,25 +1933,23 @@
       <c r="E38" t="s">
         <v>131</v>
       </c>
-      <c r="F38">
-        <v>10</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F38" s="5">
+        <v>373</v>
+      </c>
+      <c r="G38" s="5">
+        <v>12</v>
+      </c>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" ht="16">
       <c r="A39" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" t="s">
-        <v>146</v>
+        <v>81</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
         <v>88</v>
@@ -1898,498 +1957,492 @@
       <c r="E39" t="s">
         <v>131</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="5">
         <v>2914</v>
       </c>
-      <c r="G39">
+      <c r="G40" s="5">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="41" spans="1:9" ht="16">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="16">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16">
+      <c r="A44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16">
+      <c r="A45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="6">
+        <v>399</v>
+      </c>
+      <c r="G45" s="6">
+        <v>13</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" s="5">
+        <v>2349</v>
+      </c>
+      <c r="G46" s="5">
+        <v>78</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16">
+      <c r="A47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="16">
+      <c r="A49" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C49" t="s">
         <v>21</v>
       </c>
-      <c r="D40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" t="s">
-        <v>130</v>
-      </c>
-      <c r="F40" t="s">
-        <v>159</v>
-      </c>
-      <c r="G40" t="s">
-        <v>159</v>
-      </c>
-      <c r="H40" t="s">
-        <v>160</v>
-      </c>
-      <c r="I40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="D49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="16">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="16">
+      <c r="A51" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C51" t="s">
         <v>22</v>
       </c>
-      <c r="D41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41" t="s">
-        <v>130</v>
-      </c>
-      <c r="F41" t="s">
-        <v>159</v>
-      </c>
-      <c r="G41" t="s">
-        <v>159</v>
-      </c>
-      <c r="H41" t="s">
-        <v>160</v>
-      </c>
-      <c r="I41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" t="s">
-        <v>130</v>
-      </c>
-      <c r="F42" t="s">
-        <v>159</v>
-      </c>
-      <c r="G42" t="s">
-        <v>159</v>
-      </c>
-      <c r="H42" t="s">
-        <v>160</v>
-      </c>
-      <c r="I42" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" t="s">
-        <v>130</v>
-      </c>
-      <c r="F43" t="s">
-        <v>159</v>
-      </c>
-      <c r="G43" t="s">
-        <v>159</v>
-      </c>
-      <c r="H43" t="s">
-        <v>160</v>
-      </c>
-      <c r="I43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="D51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="16">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" t="s">
-        <v>130</v>
-      </c>
-      <c r="F44" t="s">
-        <v>159</v>
-      </c>
-      <c r="G44" t="s">
-        <v>159</v>
-      </c>
-      <c r="H44" t="s">
-        <v>160</v>
-      </c>
-      <c r="I44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="C52" t="s">
         <v>26</v>
       </c>
-      <c r="D45" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" t="s">
-        <v>130</v>
-      </c>
-      <c r="F45" t="s">
-        <v>159</v>
-      </c>
-      <c r="G45" t="s">
-        <v>159</v>
-      </c>
-      <c r="H45" t="s">
-        <v>160</v>
-      </c>
-      <c r="I45" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" t="s">
-        <v>130</v>
-      </c>
-      <c r="F46" t="s">
-        <v>159</v>
-      </c>
-      <c r="G46" t="s">
-        <v>159</v>
-      </c>
-      <c r="H46" t="s">
-        <v>160</v>
-      </c>
-      <c r="I46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" t="s">
-        <v>130</v>
-      </c>
-      <c r="F47" t="s">
-        <v>159</v>
-      </c>
-      <c r="G47" t="s">
-        <v>159</v>
-      </c>
-      <c r="H47" t="s">
-        <v>160</v>
-      </c>
-      <c r="I47" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" t="s">
-        <v>130</v>
-      </c>
-      <c r="F48" t="s">
-        <v>159</v>
-      </c>
-      <c r="G48" t="s">
-        <v>159</v>
-      </c>
-      <c r="H48" t="s">
-        <v>160</v>
-      </c>
-      <c r="I48" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" t="s">
-        <v>130</v>
-      </c>
-      <c r="F49" t="s">
-        <v>159</v>
-      </c>
-      <c r="G49" t="s">
-        <v>159</v>
-      </c>
-      <c r="H49" t="s">
-        <v>160</v>
-      </c>
-      <c r="I49" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" t="s">
-        <v>130</v>
-      </c>
-      <c r="F50" t="s">
-        <v>159</v>
-      </c>
-      <c r="G50" t="s">
-        <v>159</v>
-      </c>
-      <c r="H50" t="s">
-        <v>160</v>
-      </c>
-      <c r="I50" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51" t="s">
-        <v>159</v>
-      </c>
-      <c r="G51" t="s">
-        <v>159</v>
-      </c>
-      <c r="H51" t="s">
-        <v>160</v>
-      </c>
-      <c r="I51" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C52" t="s">
-        <v>33</v>
-      </c>
       <c r="D52" t="s">
         <v>88</v>
       </c>
       <c r="E52" t="s">
         <v>130</v>
       </c>
-      <c r="F52" t="s">
-        <v>159</v>
-      </c>
-      <c r="G52" t="s">
-        <v>159</v>
-      </c>
-      <c r="H52" t="s">
-        <v>160</v>
+      <c r="F52" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="I52" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="E53" t="s">
-        <v>130</v>
-      </c>
-      <c r="F53" t="s">
-        <v>159</v>
-      </c>
-      <c r="G53" t="s">
-        <v>159</v>
-      </c>
-      <c r="H53" t="s">
-        <v>160</v>
-      </c>
-      <c r="I53" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1070</v>
+      </c>
+      <c r="G53" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="D54" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="E54" t="s">
         <v>130</v>
       </c>
-      <c r="F54" t="s">
-        <v>159</v>
-      </c>
-      <c r="G54" t="s">
-        <v>159</v>
-      </c>
-      <c r="H54" t="s">
-        <v>160</v>
+      <c r="F54" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="I54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" t="s">
-        <v>151</v>
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E55" t="s">
-        <v>131</v>
-      </c>
-      <c r="F55">
-        <v>532</v>
-      </c>
-      <c r="G55">
-        <v>18</v>
-      </c>
-      <c r="H55" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="16">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="E56" t="s">
-        <v>131</v>
-      </c>
-      <c r="F56">
-        <v>1070</v>
-      </c>
-      <c r="G56">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="16">
       <c r="A57" t="s">
         <v>147</v>
       </c>
@@ -2405,14 +2458,14 @@
       <c r="E57" t="s">
         <v>131</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="5">
         <v>2594</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="16">
       <c r="A58" t="s">
         <v>150</v>
       </c>
@@ -2428,14 +2481,14 @@
       <c r="E58" t="s">
         <v>131</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="5">
         <v>2064</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="5">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="16">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -2451,17 +2504,17 @@
       <c r="E59" t="s">
         <v>131</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="6">
         <v>1</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="6">
         <v>0</v>
       </c>
-      <c r="H59" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="H59" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="16">
       <c r="A60" t="s">
         <v>138</v>
       </c>
@@ -2477,14 +2530,14 @@
       <c r="E60" t="s">
         <v>131</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="5">
         <v>2646</v>
       </c>
-      <c r="G60">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="G60" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="16">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -2500,45 +2553,54 @@
       <c r="E61" t="s">
         <v>131</v>
       </c>
-      <c r="F61">
-        <v>1003</v>
-      </c>
-      <c r="G61">
+      <c r="F61" s="6">
+        <v>888</v>
+      </c>
+      <c r="G61" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H61" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="16">
       <c r="A62" t="s">
-        <v>161</v>
-      </c>
-      <c r="B62" t="s">
-        <v>161</v>
+        <v>74</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="D62" t="s">
         <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>131</v>
-      </c>
-      <c r="F62">
-        <v>2483</v>
-      </c>
-      <c r="G62">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I62" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>148</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
+      </c>
+      <c r="B63" t="s">
+        <v>157</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D63" t="s">
         <v>88</v>
@@ -2546,22 +2608,22 @@
       <c r="E63" t="s">
         <v>131</v>
       </c>
-      <c r="F63">
-        <v>2716</v>
-      </c>
-      <c r="G63">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F63" s="5">
+        <v>2483</v>
+      </c>
+      <c r="G63" s="5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="16">
       <c r="A64" t="s">
-        <v>164</v>
-      </c>
-      <c r="B64" t="s">
-        <v>164</v>
+        <v>148</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="C64" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
         <v>88</v>
@@ -2569,19 +2631,25 @@
       <c r="E64" t="s">
         <v>131</v>
       </c>
-      <c r="F64">
-        <v>2730</v>
-      </c>
-      <c r="G64">
+      <c r="F64" s="5">
+        <v>2716</v>
+      </c>
+      <c r="G64" s="5">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I63">
-    <sortState ref="A4:I62">
-      <sortCondition ref="A1:A62"/>
+  <autoFilter ref="A1:I64">
+    <sortState ref="A2:I64">
+      <sortCondition ref="A1:A64"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>